--- a/Output/Protection_Prioritization_Output_STEELHEAD_for_WebMap_Table.xlsx
+++ b/Output/Protection_Prioritization_Output_STEELHEAD_for_WebMap_Table.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t xml:space="preserve">Reach Name</t>
   </si>
@@ -35,6 +35,54 @@
     <t xml:space="preserve">Action Categories</t>
   </si>
   <si>
+    <t xml:space="preserve">Chewuch River Doe 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chewuch River-Doe Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintain Reach Function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Land Protection (e.g. conservation easement and/or property acquisition)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chewuch River Doe 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chewuch River Pearrygin 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chewuch River-Pearrygin Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chewuch River Thirtymile 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chewuch River-Thirtymile Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chewuch River Thirtymile 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chewuch River Thirtymile 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chewuch River Thirtymile 05</t>
+  </si>
+  <si>
     <t xml:space="preserve">Entiat River Potato 05</t>
   </si>
   <si>
@@ -53,9 +101,6 @@
     <t xml:space="preserve">Winter Rearing,Summer Rearing</t>
   </si>
   <si>
-    <t xml:space="preserve">Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
-  </si>
-  <si>
     <t xml:space="preserve">Entiat River Potato 06</t>
   </si>
   <si>
@@ -65,30 +110,42 @@
     <t xml:space="preserve">Entiat River Potato 08</t>
   </si>
   <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Land Management for Protection</t>
   </si>
   <si>
+    <t xml:space="preserve">Entiat River Preston 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River-Preston Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Preston 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River-Lake Creek</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hancock Creek 01</t>
   </si>
   <si>
     <t xml:space="preserve">Methow River-Fawn Creek</t>
   </si>
   <si>
-    <t xml:space="preserve">Methow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maintain Reach Function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
     <t xml:space="preserve">Methow River Fawn 04</t>
   </si>
   <si>
+    <t xml:space="preserve">Methow River Rattlesnake 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River-Rattlesnake Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Rattlesnake 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Rattlesnake 06</t>
+  </si>
+  <si>
     <t xml:space="preserve">Methow River Thompson 07</t>
   </si>
   <si>
@@ -128,7 +185,31 @@
     <t xml:space="preserve">Twisp River Middle 06</t>
   </si>
   <si>
-    <t xml:space="preserve">Land Protection (e.g. conservation easement and/or property acquisition)</t>
+    <t xml:space="preserve">Twisp River Upper 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Twisp River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Upper 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee River Beaver 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee River-Beaver Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee River Beaver 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolf Creek 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolf Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolf Creek 04</t>
   </si>
   <si>
     <t xml:space="preserve">Big Meadow Creek 01</t>
@@ -137,6 +218,12 @@
     <t xml:space="preserve">Big Meadow Creek</t>
   </si>
   <si>
+    <t xml:space="preserve">Mad River Lower 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Mad River</t>
+  </si>
+  <si>
     <t xml:space="preserve">Salmon 16-11</t>
   </si>
   <si>
@@ -164,12 +251,36 @@
     <t xml:space="preserve">Tonasket Creek DS</t>
   </si>
   <si>
+    <t xml:space="preserve">Twisp River Headwaters 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Headwaters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Upper 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninemile 16-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninemile Creek DS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Entiat River Potato 07</t>
   </si>
   <si>
     <t xml:space="preserve">Prevent Limiting Factors</t>
   </si>
   <si>
+    <t xml:space="preserve">Entiat River Preston 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Preston 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Preston 04</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nason Creek Lower 04</t>
   </si>
   <si>
@@ -179,6 +290,24 @@
     <t xml:space="preserve">Nason Creek Lower 07</t>
   </si>
   <si>
+    <t xml:space="preserve">Wenatchee River Beaver 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee River Beaver 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee River Beaver 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beaver Creek Lower 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Beaver Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation</t>
+  </si>
+  <si>
     <t xml:space="preserve">Entiat River Mills 03</t>
   </si>
   <si>
@@ -188,13 +317,19 @@
     <t xml:space="preserve">Entiat River Mills 06</t>
   </si>
   <si>
+    <t xml:space="preserve">Little Bridge Creek 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Bridge Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summer Rearing</t>
+  </si>
+  <si>
     <t xml:space="preserve">Peshastin Creek Lower 06</t>
   </si>
   <si>
     <t xml:space="preserve">Lower Peshastin Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spawning and Incubation</t>
   </si>
   <si>
     <t xml:space="preserve">Salmon 16-10</t>
@@ -607,7 +742,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -618,11 +753,11 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
@@ -630,56 +765,56 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
@@ -687,22 +822,22 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
@@ -710,22 +845,22 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
@@ -733,113 +868,117 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
         <v>28</v>
       </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>31</v>
-      </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
         <v>30</v>
       </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
         <v>34</v>
       </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12"/>
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13"/>
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
@@ -847,22 +986,22 @@
         <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15">
@@ -870,88 +1009,88 @@
         <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
         <v>30</v>
       </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" t="s">
-        <v>17</v>
-      </c>
       <c r="F15" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
         <v>41</v>
       </c>
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F16" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
         <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="G18" t="s">
         <v>13</v>
@@ -959,179 +1098,179 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20"/>
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>30</v>
+      </c>
       <c r="F20" t="s">
         <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="E22" t="s">
         <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" t="s">
         <v>30</v>
       </c>
-      <c r="D23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" t="s">
-        <v>17</v>
-      </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" t="s">
-        <v>17</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E24"/>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" t="s">
-        <v>15</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E25"/>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26"/>
+        <v>26</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
       <c r="F26" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="G26" t="s">
         <v>13</v>
@@ -1139,45 +1278,45 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="G27" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="G28" t="s">
         <v>13</v>
@@ -1185,94 +1324,770 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="E29" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G29" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D30" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="E30" t="s">
         <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F31" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="G32" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34"/>
+      <c r="F34" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" t="s">
+        <v>73</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" t="s">
+        <v>75</v>
+      </c>
+      <c r="G36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" t="s">
+        <v>73</v>
+      </c>
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41"/>
+      <c r="F41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" t="s">
+        <v>85</v>
+      </c>
+      <c r="E42"/>
+      <c r="F42" t="s">
+        <v>28</v>
+      </c>
+      <c r="G42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" t="s">
+        <v>85</v>
+      </c>
+      <c r="E43"/>
+      <c r="F43" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" t="s">
+        <v>85</v>
+      </c>
+      <c r="E44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" t="s">
+        <v>28</v>
+      </c>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" t="s">
+        <v>85</v>
+      </c>
+      <c r="E45" t="s">
+        <v>27</v>
+      </c>
+      <c r="F45" t="s">
+        <v>50</v>
+      </c>
+      <c r="G45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" t="s">
+        <v>85</v>
+      </c>
+      <c r="E46" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" t="s">
+        <v>50</v>
+      </c>
+      <c r="G46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E47" t="s">
+        <v>30</v>
+      </c>
+      <c r="F47" t="s">
+        <v>50</v>
+      </c>
+      <c r="G47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" t="s">
+        <v>85</v>
+      </c>
+      <c r="E48" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" t="s">
+        <v>50</v>
+      </c>
+      <c r="G48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" t="s">
+        <v>85</v>
+      </c>
+      <c r="E49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" t="s">
+        <v>50</v>
+      </c>
+      <c r="G49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E50" t="s">
+        <v>27</v>
+      </c>
+      <c r="F50" t="s">
+        <v>50</v>
+      </c>
+      <c r="G50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51" t="s">
+        <v>85</v>
+      </c>
+      <c r="E51"/>
+      <c r="F51" t="s">
+        <v>50</v>
+      </c>
+      <c r="G51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>95</v>
+      </c>
+      <c r="B52" t="s">
+        <v>96</v>
+      </c>
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" t="s">
+        <v>85</v>
+      </c>
+      <c r="E52" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" t="s">
+        <v>97</v>
+      </c>
+      <c r="G52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>98</v>
+      </c>
+      <c r="B53" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" t="s">
+        <v>85</v>
+      </c>
+      <c r="E53" t="s">
+        <v>30</v>
+      </c>
+      <c r="F53" t="s">
+        <v>50</v>
+      </c>
+      <c r="G53" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>100</v>
+      </c>
+      <c r="B54" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" t="s">
+        <v>85</v>
+      </c>
+      <c r="E54" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" t="s">
+        <v>50</v>
+      </c>
+      <c r="G54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>101</v>
+      </c>
+      <c r="B55" t="s">
+        <v>102</v>
+      </c>
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" t="s">
+        <v>85</v>
+      </c>
+      <c r="E55"/>
+      <c r="F55" t="s">
+        <v>103</v>
+      </c>
+      <c r="G55" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>104</v>
+      </c>
+      <c r="B56" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" t="s">
+        <v>49</v>
+      </c>
+      <c r="D56" t="s">
+        <v>85</v>
+      </c>
+      <c r="E56"/>
+      <c r="F56" t="s">
+        <v>97</v>
+      </c>
+      <c r="G56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>106</v>
+      </c>
+      <c r="B57" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" t="s">
+        <v>72</v>
+      </c>
+      <c r="D57" t="s">
+        <v>85</v>
+      </c>
+      <c r="E57" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" t="s">
+        <v>73</v>
+      </c>
+      <c r="G57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>107</v>
+      </c>
+      <c r="B58" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" t="s">
+        <v>72</v>
+      </c>
+      <c r="D58" t="s">
+        <v>85</v>
+      </c>
+      <c r="E58" t="s">
+        <v>27</v>
+      </c>
+      <c r="F58" t="s">
+        <v>108</v>
+      </c>
+      <c r="G58" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>109</v>
+      </c>
+      <c r="B59" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" t="s">
+        <v>72</v>
+      </c>
+      <c r="D59" t="s">
+        <v>85</v>
+      </c>
+      <c r="E59" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" t="s">
+        <v>73</v>
+      </c>
+      <c r="G59" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>110</v>
+      </c>
+      <c r="B60" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" t="s">
+        <v>72</v>
+      </c>
+      <c r="D60" t="s">
+        <v>85</v>
+      </c>
+      <c r="E60" t="s">
+        <v>27</v>
+      </c>
+      <c r="F60" t="s">
+        <v>73</v>
+      </c>
+      <c r="G60" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>111</v>
+      </c>
+      <c r="B61" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" t="s">
+        <v>72</v>
+      </c>
+      <c r="D61" t="s">
+        <v>85</v>
+      </c>
+      <c r="E61" t="s">
+        <v>27</v>
+      </c>
+      <c r="F61" t="s">
+        <v>73</v>
+      </c>
+      <c r="G61" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>112</v>
+      </c>
+      <c r="B62" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D62" t="s">
+        <v>85</v>
+      </c>
+      <c r="E62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" t="s">
+        <v>73</v>
+      </c>
+      <c r="G62" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Protection_Prioritization_Output_STEELHEAD_for_WebMap_Table.xlsx
+++ b/Output/Protection_Prioritization_Output_STEELHEAD_for_WebMap_Table.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
   <si>
     <t xml:space="preserve">Reach Name</t>
   </si>
@@ -104,19 +104,178 @@
     <t xml:space="preserve">Entiat River Potato 06</t>
   </si>
   <si>
+    <t xml:space="preserve">Entiat River Potato 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Land Management for Protection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Preston 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River-Preston Creek</t>
+  </si>
+  <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
-    <t xml:space="preserve">Entiat River Potato 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Land Management for Protection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Preston 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River-Preston Creek</t>
+    <t xml:space="preserve">Entiat River Preston 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hancock Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River-Fawn Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Fawn 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Rattlesnake 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River-Rattlesnake Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Rattlesnake 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Rattlesnake 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Thompson 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River-Thompson Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Thompson 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Nason Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winter Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Middle 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle Twisp River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Middle 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Middle 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Upper 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Twisp River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Upper 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee River Beaver 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee River-Beaver Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee River Beaver 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolf Creek 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolf Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolf Creek 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big Meadow Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big Meadow Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omak 16-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omak Creek-Middle DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stapaloop 16-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Headwaters 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Headwaters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Upper 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninemile 16-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninemile Creek DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon 16-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon Creek-Lower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon 16-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation,Winter Rearing,Smolt Outmigration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon 16-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation,Winter Rearing,Summer Rearing,Smolt Outmigration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tonasket 16-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tonasket Creek DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Potato 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prevent Limiting Factors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Preston 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Preston 03</t>
   </si>
   <si>
     <t xml:space="preserve">Entiat River Preston 05</t>
@@ -125,97 +284,64 @@
     <t xml:space="preserve">Entiat River-Lake Creek</t>
   </si>
   <si>
-    <t xml:space="preserve">Hancock Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River-Fawn Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Fawn 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Rattlesnake 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River-Rattlesnake Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Rattlesnake 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Rattlesnake 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Thompson 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River-Thompson Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Thompson 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Nason Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wenatchee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winter Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Middle 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle Twisp River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Middle 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Middle 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Upper 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upper Twisp River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Upper 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wenatchee River Beaver 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wenatchee River-Beaver Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wenatchee River Beaver 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wolf Creek 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wolf Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wolf Creek 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Big Meadow Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Big Meadow Creek</t>
+    <t xml:space="preserve">Nason Creek Lower 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee River Beaver 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee River Beaver 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee River Beaver 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beaver Creek Lower 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Beaver Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Mills 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River-Mills Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Mills 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icicle Creek Lower 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Icicle Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adult Migration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icicle Creek Lower 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Bridge Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Bridge Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summer Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Bridge Creek 02</t>
   </si>
   <si>
     <t xml:space="preserve">Mad River Lower 04</t>
@@ -224,106 +350,58 @@
     <t xml:space="preserve">Lower Mad River</t>
   </si>
   <si>
-    <t xml:space="preserve">Salmon 16-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon Creek-Lower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan</t>
+    <t xml:space="preserve">Mission Creek 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">East Fork Mission Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan 16-41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan-Mosquito Creek</t>
   </si>
   <si>
     <t xml:space="preserve">Smolt Outmigration</t>
   </si>
   <si>
-    <t xml:space="preserve">Salmon 16-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smolt Outmigration,Spawning and Incubation,Winter Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon 16-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tonasket 16-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tonasket Creek DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Headwaters 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Headwaters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Upper 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ninemile 16-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ninemile Creek DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Potato 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prevent Limiting Factors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Preston 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Preston 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Preston 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wenatchee River Beaver 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wenatchee River Beaver 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wenatchee River Beaver 13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beaver Creek Lower 09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Beaver Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spawning and Incubation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Mills 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River-Mills Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Mills 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Little Bridge Creek 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Little Bridge Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summer Rearing</t>
+    <t xml:space="preserve">Okanogan 16-43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan-Haynes Creek South</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan 16-44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan 16-45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omak 16-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omak Creek-Lower US</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omak 16-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation,Winter Rearing,Summer Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omak 16-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omak 16-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omak 16-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation,Winter Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omak 16-9</t>
   </si>
   <si>
     <t xml:space="preserve">Peshastin Creek Lower 06</t>
@@ -332,13 +410,13 @@
     <t xml:space="preserve">Lower Peshastin Creek</t>
   </si>
   <si>
-    <t xml:space="preserve">Salmon 16-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon 16-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smolt Outmigration,Winter Rearing</t>
+    <t xml:space="preserve">Salmon 16-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon 16-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winter Rearing,Smolt Outmigration</t>
   </si>
   <si>
     <t xml:space="preserve">Salmon 16-4</t>
@@ -348,9 +426,6 @@
   </si>
   <si>
     <t xml:space="preserve">Salmon 16-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon 16-8</t>
   </si>
 </sst>
 </file>
@@ -903,7 +978,7 @@
         <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
         <v>28</v>
@@ -914,7 +989,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -932,15 +1007,15 @@
         <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
         <v>33</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
@@ -949,7 +1024,7 @@
         <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
         <v>28</v>
@@ -963,19 +1038,19 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="G13" t="s">
         <v>17</v>
@@ -983,10 +1058,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
         <v>37</v>
-      </c>
-      <c r="B14" t="s">
-        <v>38</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
@@ -1001,15 +1076,15 @@
         <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
@@ -1018,7 +1093,7 @@
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
@@ -1029,10 +1104,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
         <v>40</v>
-      </c>
-      <c r="B16" t="s">
-        <v>41</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
@@ -1052,10 +1127,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
@@ -1075,10 +1150,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
@@ -1098,10 +1173,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
         <v>44</v>
-      </c>
-      <c r="B19" t="s">
-        <v>45</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
@@ -1121,10 +1196,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
@@ -1133,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
         <v>12</v>
@@ -1144,13 +1219,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
         <v>47</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>48</v>
-      </c>
-      <c r="C21" t="s">
-        <v>49</v>
       </c>
       <c r="D21" t="s">
         <v>26</v>
@@ -1159,7 +1234,7 @@
         <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G21" t="s">
         <v>17</v>
@@ -1167,13 +1242,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
         <v>48</v>
-      </c>
-      <c r="C22" t="s">
-        <v>49</v>
       </c>
       <c r="D22" t="s">
         <v>26</v>
@@ -1182,7 +1257,7 @@
         <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G22" t="s">
         <v>17</v>
@@ -1190,22 +1265,22 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
         <v>48</v>
-      </c>
-      <c r="C23" t="s">
-        <v>49</v>
       </c>
       <c r="D23" t="s">
         <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" t="s">
         <v>17</v>
@@ -1213,10 +1288,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
         <v>53</v>
-      </c>
-      <c r="B24" t="s">
-        <v>54</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
@@ -1234,10 +1309,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
@@ -1255,10 +1330,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
@@ -1278,10 +1353,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" t="s">
         <v>57</v>
-      </c>
-      <c r="B27" t="s">
-        <v>58</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
@@ -1301,10 +1376,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
@@ -1324,13 +1399,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" t="s">
         <v>60</v>
       </c>
-      <c r="B29" t="s">
-        <v>61</v>
-      </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D29" t="s">
         <v>26</v>
@@ -1339,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G29" t="s">
         <v>13</v>
@@ -1347,13 +1422,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D30" t="s">
         <v>26</v>
@@ -1362,7 +1437,7 @@
         <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G30" t="s">
         <v>17</v>
@@ -1370,10 +1445,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
         <v>63</v>
-      </c>
-      <c r="B31" t="s">
-        <v>64</v>
       </c>
       <c r="C31" t="s">
         <v>9</v>
@@ -1393,10 +1468,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s">
         <v>9</v>
@@ -1416,13 +1491,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" t="s">
         <v>66</v>
       </c>
-      <c r="B33" t="s">
-        <v>67</v>
-      </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D33" t="s">
         <v>10</v>
@@ -1439,23 +1514,25 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" t="s">
         <v>68</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>69</v>
       </c>
-      <c r="C34" t="s">
-        <v>25</v>
-      </c>
       <c r="D34" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34"/>
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
+        <v>27</v>
+      </c>
       <c r="F34" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35">
@@ -1463,86 +1540,84 @@
         <v>70</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D35" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="G36" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C37" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="G37" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C38" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D38" t="s">
         <v>10</v>
       </c>
-      <c r="E38" t="s">
-        <v>27</v>
-      </c>
+      <c r="E38"/>
       <c r="F38" t="s">
         <v>12</v>
       </c>
@@ -1552,20 +1627,18 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="D39" t="s">
         <v>10</v>
       </c>
-      <c r="E39" t="s">
-        <v>11</v>
-      </c>
+      <c r="E39"/>
       <c r="F39" t="s">
         <v>12</v>
       </c>
@@ -1575,43 +1648,45 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C41" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41"/>
+        <v>26</v>
+      </c>
+      <c r="E41" t="s">
+        <v>11</v>
+      </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="G41" t="s">
         <v>17</v>
@@ -1619,20 +1694,20 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B42" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="C42" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="D42" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="E42"/>
       <c r="F42" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="G42" t="s">
         <v>17</v>
@@ -1640,10 +1715,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C43" t="s">
         <v>25</v>
@@ -1653,7 +1728,7 @@
       </c>
       <c r="E43"/>
       <c r="F43" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G43" t="s">
         <v>17</v>
@@ -1661,10 +1736,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C44" t="s">
         <v>25</v>
@@ -1672,11 +1747,9 @@
       <c r="D44" t="s">
         <v>85</v>
       </c>
-      <c r="E44" t="s">
-        <v>11</v>
-      </c>
+      <c r="E44"/>
       <c r="F44" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="G44" t="s">
         <v>17</v>
@@ -1684,10 +1757,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C45" t="s">
         <v>25</v>
@@ -1696,10 +1769,10 @@
         <v>85</v>
       </c>
       <c r="E45" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G45" t="s">
         <v>17</v>
@@ -1707,22 +1780,22 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" t="s">
         <v>89</v>
       </c>
-      <c r="B46" t="s">
-        <v>48</v>
-      </c>
       <c r="C46" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="D46" t="s">
         <v>85</v>
       </c>
       <c r="E46" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F46" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G46" t="s">
         <v>17</v>
@@ -1733,19 +1806,19 @@
         <v>90</v>
       </c>
       <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" t="s">
         <v>48</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E47" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" t="s">
         <v>49</v>
-      </c>
-      <c r="D47" t="s">
-        <v>85</v>
-      </c>
-      <c r="E47" t="s">
-        <v>30</v>
-      </c>
-      <c r="F47" t="s">
-        <v>50</v>
       </c>
       <c r="G47" t="s">
         <v>17</v>
@@ -1756,19 +1829,19 @@
         <v>91</v>
       </c>
       <c r="B48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
         <v>48</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
+        <v>85</v>
+      </c>
+      <c r="E48" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48" t="s">
         <v>49</v>
-      </c>
-      <c r="D48" t="s">
-        <v>85</v>
-      </c>
-      <c r="E48" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" t="s">
-        <v>50</v>
       </c>
       <c r="G48" t="s">
         <v>17</v>
@@ -1779,19 +1852,19 @@
         <v>92</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" t="s">
+        <v>85</v>
+      </c>
+      <c r="E49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" t="s">
         <v>49</v>
-      </c>
-      <c r="D49" t="s">
-        <v>85</v>
-      </c>
-      <c r="E49" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" t="s">
-        <v>50</v>
       </c>
       <c r="G49" t="s">
         <v>17</v>
@@ -1802,19 +1875,19 @@
         <v>93</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C50" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E50" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" t="s">
         <v>49</v>
-      </c>
-      <c r="D50" t="s">
-        <v>85</v>
-      </c>
-      <c r="E50" t="s">
-        <v>27</v>
-      </c>
-      <c r="F50" t="s">
-        <v>50</v>
       </c>
       <c r="G50" t="s">
         <v>17</v>
@@ -1825,17 +1898,19 @@
         <v>94</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C51" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" t="s">
+        <v>85</v>
+      </c>
+      <c r="E51" t="s">
+        <v>27</v>
+      </c>
+      <c r="F51" t="s">
         <v>49</v>
-      </c>
-      <c r="D51" t="s">
-        <v>85</v>
-      </c>
-      <c r="E51"/>
-      <c r="F51" t="s">
-        <v>50</v>
       </c>
       <c r="G51" t="s">
         <v>17</v>
@@ -1846,53 +1921,51 @@
         <v>95</v>
       </c>
       <c r="B52" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D52" t="s">
         <v>85</v>
       </c>
-      <c r="E52" t="s">
-        <v>11</v>
-      </c>
+      <c r="E52"/>
       <c r="F52" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="G52" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" t="s">
+        <v>85</v>
+      </c>
+      <c r="E53" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" t="s">
         <v>98</v>
       </c>
-      <c r="B53" t="s">
-        <v>99</v>
-      </c>
-      <c r="C53" t="s">
-        <v>25</v>
-      </c>
-      <c r="D53" t="s">
-        <v>85</v>
-      </c>
-      <c r="E53" t="s">
-        <v>30</v>
-      </c>
-      <c r="F53" t="s">
-        <v>50</v>
-      </c>
       <c r="G53" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>99</v>
+      </c>
+      <c r="B54" t="s">
         <v>100</v>
-      </c>
-      <c r="B54" t="s">
-        <v>99</v>
       </c>
       <c r="C54" t="s">
         <v>25</v>
@@ -1901,10 +1974,10 @@
         <v>85</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G54" t="s">
         <v>17</v>
@@ -1915,17 +1988,19 @@
         <v>101</v>
       </c>
       <c r="B55" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D55" t="s">
         <v>85</v>
       </c>
-      <c r="E55"/>
+      <c r="E55" t="s">
+        <v>11</v>
+      </c>
       <c r="F55" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="G55" t="s">
         <v>17</v>
@@ -1933,20 +2008,20 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B56" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D56" t="s">
         <v>85</v>
       </c>
       <c r="E56"/>
       <c r="F56" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G56" t="s">
         <v>17</v>
@@ -1954,43 +2029,39 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B57" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="C57" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="D57" t="s">
         <v>85</v>
       </c>
-      <c r="E57" t="s">
-        <v>11</v>
-      </c>
+      <c r="E57"/>
       <c r="F57" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="G57" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
+        <v>106</v>
+      </c>
+      <c r="B58" t="s">
         <v>107</v>
       </c>
-      <c r="B58" t="s">
-        <v>71</v>
-      </c>
       <c r="C58" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
         <v>85</v>
       </c>
-      <c r="E58" t="s">
-        <v>27</v>
-      </c>
+      <c r="E58"/>
       <c r="F58" t="s">
         <v>108</v>
       </c>
@@ -2003,22 +2074,20 @@
         <v>109</v>
       </c>
       <c r="B59" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="C59" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
         <v>85</v>
       </c>
-      <c r="E59" t="s">
-        <v>11</v>
-      </c>
+      <c r="E59"/>
       <c r="F59" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="G59" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60">
@@ -2026,42 +2095,38 @@
         <v>110</v>
       </c>
       <c r="B60" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="C60" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="D60" t="s">
         <v>85</v>
       </c>
-      <c r="E60" t="s">
-        <v>27</v>
-      </c>
+      <c r="E60"/>
       <c r="F60" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="G60" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B61" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="C61" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="D61" t="s">
         <v>85</v>
       </c>
-      <c r="E61" t="s">
-        <v>27</v>
-      </c>
+      <c r="E61"/>
       <c r="F61" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="G61" t="s">
         <v>17</v>
@@ -2069,24 +2134,349 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B62" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="C62" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D62" t="s">
         <v>85</v>
       </c>
-      <c r="E62" t="s">
-        <v>11</v>
-      </c>
+      <c r="E62"/>
       <c r="F62" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="G62" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63" t="s">
+        <v>118</v>
+      </c>
+      <c r="C63" t="s">
+        <v>69</v>
+      </c>
+      <c r="D63" t="s">
+        <v>85</v>
+      </c>
+      <c r="E63"/>
+      <c r="F63" t="s">
+        <v>116</v>
+      </c>
+      <c r="G63" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>119</v>
+      </c>
+      <c r="B64" t="s">
+        <v>118</v>
+      </c>
+      <c r="C64" t="s">
+        <v>69</v>
+      </c>
+      <c r="D64" t="s">
+        <v>85</v>
+      </c>
+      <c r="E64"/>
+      <c r="F64" t="s">
+        <v>116</v>
+      </c>
+      <c r="G64" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>120</v>
+      </c>
+      <c r="B65" t="s">
+        <v>118</v>
+      </c>
+      <c r="C65" t="s">
+        <v>69</v>
+      </c>
+      <c r="D65" t="s">
+        <v>85</v>
+      </c>
+      <c r="E65"/>
+      <c r="F65" t="s">
+        <v>116</v>
+      </c>
+      <c r="G65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>121</v>
+      </c>
+      <c r="B66" t="s">
+        <v>122</v>
+      </c>
+      <c r="C66" t="s">
+        <v>69</v>
+      </c>
+      <c r="D66" t="s">
+        <v>85</v>
+      </c>
+      <c r="E66"/>
+      <c r="F66" t="s">
+        <v>98</v>
+      </c>
+      <c r="G66" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>123</v>
+      </c>
+      <c r="B67" t="s">
+        <v>122</v>
+      </c>
+      <c r="C67" t="s">
+        <v>69</v>
+      </c>
+      <c r="D67" t="s">
+        <v>85</v>
+      </c>
+      <c r="E67"/>
+      <c r="F67" t="s">
+        <v>124</v>
+      </c>
+      <c r="G67" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>125</v>
+      </c>
+      <c r="B68" t="s">
+        <v>122</v>
+      </c>
+      <c r="C68" t="s">
+        <v>69</v>
+      </c>
+      <c r="D68" t="s">
+        <v>85</v>
+      </c>
+      <c r="E68"/>
+      <c r="F68" t="s">
+        <v>98</v>
+      </c>
+      <c r="G68" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>126</v>
+      </c>
+      <c r="B69" t="s">
+        <v>122</v>
+      </c>
+      <c r="C69" t="s">
+        <v>69</v>
+      </c>
+      <c r="D69" t="s">
+        <v>85</v>
+      </c>
+      <c r="E69"/>
+      <c r="F69" t="s">
+        <v>98</v>
+      </c>
+      <c r="G69" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>127</v>
+      </c>
+      <c r="B70" t="s">
+        <v>122</v>
+      </c>
+      <c r="C70" t="s">
+        <v>69</v>
+      </c>
+      <c r="D70" t="s">
+        <v>85</v>
+      </c>
+      <c r="E70" t="s">
+        <v>34</v>
+      </c>
+      <c r="F70" t="s">
+        <v>128</v>
+      </c>
+      <c r="G70" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>129</v>
+      </c>
+      <c r="B71" t="s">
+        <v>122</v>
+      </c>
+      <c r="C71" t="s">
+        <v>69</v>
+      </c>
+      <c r="D71" t="s">
+        <v>85</v>
+      </c>
+      <c r="E71" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" t="s">
+        <v>98</v>
+      </c>
+      <c r="G71" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>130</v>
+      </c>
+      <c r="B72" t="s">
+        <v>131</v>
+      </c>
+      <c r="C72" t="s">
+        <v>48</v>
+      </c>
+      <c r="D72" t="s">
+        <v>85</v>
+      </c>
+      <c r="E72"/>
+      <c r="F72" t="s">
+        <v>98</v>
+      </c>
+      <c r="G72" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>132</v>
+      </c>
+      <c r="B73" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73" t="s">
+        <v>69</v>
+      </c>
+      <c r="D73" t="s">
+        <v>85</v>
+      </c>
+      <c r="E73"/>
+      <c r="F73" t="s">
+        <v>116</v>
+      </c>
+      <c r="G73" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>133</v>
+      </c>
+      <c r="B74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74" t="s">
+        <v>69</v>
+      </c>
+      <c r="D74" t="s">
+        <v>85</v>
+      </c>
+      <c r="E74" t="s">
+        <v>27</v>
+      </c>
+      <c r="F74" t="s">
+        <v>134</v>
+      </c>
+      <c r="G74" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>135</v>
+      </c>
+      <c r="B75" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D75" t="s">
+        <v>85</v>
+      </c>
+      <c r="E75" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" t="s">
+        <v>81</v>
+      </c>
+      <c r="G75" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>136</v>
+      </c>
+      <c r="B76" t="s">
+        <v>77</v>
+      </c>
+      <c r="C76" t="s">
+        <v>69</v>
+      </c>
+      <c r="D76" t="s">
+        <v>85</v>
+      </c>
+      <c r="E76" t="s">
+        <v>34</v>
+      </c>
+      <c r="F76" t="s">
+        <v>79</v>
+      </c>
+      <c r="G76" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>137</v>
+      </c>
+      <c r="B77" t="s">
+        <v>77</v>
+      </c>
+      <c r="C77" t="s">
+        <v>69</v>
+      </c>
+      <c r="D77" t="s">
+        <v>85</v>
+      </c>
+      <c r="E77" t="s">
+        <v>27</v>
+      </c>
+      <c r="F77" t="s">
+        <v>79</v>
+      </c>
+      <c r="G77" t="s">
         <v>17</v>
       </c>
     </row>

--- a/Output/Protection_Prioritization_Output_STEELHEAD_for_WebMap_Table.xlsx
+++ b/Output/Protection_Prioritization_Output_STEELHEAD_for_WebMap_Table.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <t xml:space="preserve">Reach Name</t>
   </si>
@@ -35,7 +35,7 @@
     <t xml:space="preserve">Action Categories</t>
   </si>
   <si>
-    <t xml:space="preserve">Chewuch River Doe 04</t>
+    <t xml:space="preserve">Chewuch River Doe 05</t>
   </si>
   <si>
     <t xml:space="preserve">Chewuch River-Doe Creek</t>
@@ -56,9 +56,6 @@
     <t xml:space="preserve">Land Protection (e.g. conservation easement and/or property acquisition)</t>
   </si>
   <si>
-    <t xml:space="preserve">Chewuch River Doe 05</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chewuch River Pearrygin 08</t>
   </si>
   <si>
@@ -68,12 +65,15 @@
     <t xml:space="preserve">Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
   </si>
   <si>
+    <t xml:space="preserve">Chewuch River Thirtymile 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chewuch River-Thirtymile Creek</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chewuch River Thirtymile 02</t>
   </si>
   <si>
-    <t xml:space="preserve">Chewuch River-Thirtymile Creek</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chewuch River Thirtymile 03</t>
   </si>
   <si>
@@ -83,6 +83,15 @@
     <t xml:space="preserve">Chewuch River Thirtymile 05</t>
   </si>
   <si>
+    <t xml:space="preserve">Chiwawa River Middle 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle Chiwawa River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee</t>
+  </si>
+  <si>
     <t xml:space="preserve">Entiat River Potato 05</t>
   </si>
   <si>
@@ -104,6 +113,12 @@
     <t xml:space="preserve">Entiat River Potato 06</t>
   </si>
   <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Potato 07</t>
+  </si>
+  <si>
     <t xml:space="preserve">Entiat River Potato 08</t>
   </si>
   <si>
@@ -116,12 +131,6 @@
     <t xml:space="preserve">Entiat River-Preston Creek</t>
   </si>
   <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Preston 04</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hancock Creek 01</t>
   </si>
   <si>
@@ -152,15 +161,21 @@
     <t xml:space="preserve">Methow River Thompson 08</t>
   </si>
   <si>
+    <t xml:space="preserve">Mill Creek Peshastin 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Peshastin Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nason Creek Lower 01</t>
   </si>
   <si>
     <t xml:space="preserve">Lower Nason Creek</t>
   </si>
   <si>
-    <t xml:space="preserve">Wenatchee</t>
-  </si>
-  <si>
     <t xml:space="preserve">Winter Rearing</t>
   </si>
   <si>
@@ -197,102 +212,90 @@
     <t xml:space="preserve">Wenatchee River-Beaver Creek</t>
   </si>
   <si>
+    <t xml:space="preserve">Wolf Creek 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolf Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big Meadow Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big Meadow Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big Meadow Creek 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon 16-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon Creek-Lower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smolt Outmigration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon 16-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smolt Outmigration,Spawning and Incubation,Winter Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon 16-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tonasket 16-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tonasket Creek DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Headwaters 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Headwaters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Upper 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninemile 16-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninemile Creek DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Preston 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prevent Limiting Factors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Preston 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Preston 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River-Lake Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 07</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wenatchee River Beaver 02</t>
   </si>
   <si>
-    <t xml:space="preserve">Wolf Creek 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wolf Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wolf Creek 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Big Meadow Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Big Meadow Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omak 16-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omak Creek-Middle DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stapaloop 16-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Headwaters 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Headwaters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Upper 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ninemile 16-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ninemile Creek DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon 16-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon Creek-Lower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon 16-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spawning and Incubation,Winter Rearing,Smolt Outmigration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon 16-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spawning and Incubation,Winter Rearing,Summer Rearing,Smolt Outmigration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tonasket 16-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tonasket Creek DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Potato 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prevent Limiting Factors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Preston 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Preston 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Preston 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River-Lake Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 07</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wenatchee River Beaver 03</t>
   </si>
   <si>
@@ -308,9 +311,6 @@
     <t xml:space="preserve">Lower Beaver Creek</t>
   </si>
   <si>
-    <t xml:space="preserve">Spawning and Incubation</t>
-  </si>
-  <si>
     <t xml:space="preserve">Entiat River Mills 03</t>
   </si>
   <si>
@@ -350,73 +350,13 @@
     <t xml:space="preserve">Lower Mad River</t>
   </si>
   <si>
-    <t xml:space="preserve">Mission Creek 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">East Fork Mission Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan 16-41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan-Mosquito Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smolt Outmigration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan 16-43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan-Haynes Creek South</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan 16-44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan 16-45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omak 16-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omak Creek-Lower US</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omak 16-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spawning and Incubation,Winter Rearing,Summer Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omak 16-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omak 16-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omak 16-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spawning and Incubation,Winter Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omak 16-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peshastin Creek Lower 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Peshastin Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon 16-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon 16-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winter Rearing,Smolt Outmigration</t>
+    <t xml:space="preserve">Salmon 16-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon 16-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smolt Outmigration,Winter Rearing</t>
   </si>
   <si>
     <t xml:space="preserve">Salmon 16-4</t>
@@ -426,6 +366,9 @@
   </si>
   <si>
     <t xml:space="preserve">Salmon 16-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon 16-8</t>
   </si>
 </sst>
 </file>
@@ -808,7 +751,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -823,15 +766,15 @@
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -846,15 +789,15 @@
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
         <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -877,7 +820,7 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -900,7 +843,7 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -923,7 +866,7 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -952,85 +895,85 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
         <v>29</v>
       </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
@@ -1038,53 +981,53 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
@@ -1093,18 +1036,18 @@
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
         <v>40</v>
@@ -1116,21 +1059,21 @@
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
@@ -1139,21 +1082,21 @@
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
@@ -1173,11 +1116,11 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
         <v>43</v>
       </c>
-      <c r="B19" t="s">
-        <v>44</v>
-      </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
@@ -1185,21 +1128,21 @@
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
         <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
@@ -1208,190 +1151,188 @@
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F20" t="s">
         <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
         <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F21" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
         <v>50</v>
       </c>
-      <c r="B22" t="s">
-        <v>47</v>
-      </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" t="s">
-        <v>11</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E22"/>
       <c r="F22" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G22" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E23" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
         <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24"/>
+        <v>29</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
       <c r="F24" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
         <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25"/>
+        <v>29</v>
+      </c>
+      <c r="E25" t="s">
+        <v>33</v>
+      </c>
       <c r="F25" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="G25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" t="s">
-        <v>11</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E26"/>
       <c r="F26" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" t="s">
-        <v>11</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E27"/>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" t="s">
         <v>58</v>
       </c>
-      <c r="B28" t="s">
-        <v>57</v>
-      </c>
       <c r="C28" t="s">
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G28" t="s">
         <v>13</v>
@@ -1399,22 +1340,22 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
         <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="G29" t="s">
         <v>13</v>
@@ -1422,56 +1363,56 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
         <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="G30" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E31" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="G31" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C32" t="s">
         <v>9</v>
@@ -1491,13 +1432,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="D33" t="s">
         <v>10</v>
@@ -1514,131 +1455,135 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="D34" t="s">
         <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
         <v>12</v>
       </c>
       <c r="G34" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E35" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="G35" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B36" t="s">
         <v>72</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B37" t="s">
         <v>72</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C38" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D38" t="s">
         <v>10</v>
       </c>
-      <c r="E38"/>
+      <c r="E38" t="s">
+        <v>30</v>
+      </c>
       <c r="F38" t="s">
         <v>12</v>
       </c>
       <c r="G38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C39" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
         <v>10</v>
       </c>
-      <c r="E39"/>
+      <c r="E39" t="s">
+        <v>11</v>
+      </c>
       <c r="F39" t="s">
         <v>12</v>
       </c>
@@ -1648,409 +1593,409 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C40" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="G40" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D41" t="s">
-        <v>26</v>
-      </c>
-      <c r="E41" t="s">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E41"/>
       <c r="F41" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="G41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="C42" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="E42"/>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="G42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B43" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D43" t="s">
-        <v>85</v>
-      </c>
-      <c r="E43"/>
+        <v>86</v>
+      </c>
+      <c r="E43" t="s">
+        <v>11</v>
+      </c>
       <c r="F43" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" t="s">
+        <v>86</v>
+      </c>
+      <c r="E44" t="s">
         <v>33</v>
       </c>
-      <c r="C44" t="s">
-        <v>25</v>
-      </c>
-      <c r="D44" t="s">
-        <v>85</v>
-      </c>
-      <c r="E44"/>
       <c r="F44" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B45" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C45" t="s">
         <v>25</v>
       </c>
       <c r="D45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F45" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="G45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="C46" t="s">
         <v>25</v>
       </c>
       <c r="D46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E46" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F46" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="G46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C47" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="D47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E47" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C48" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="D48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E48" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C49" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="D49" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F49" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C50" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="D50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F50" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C51" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="D51" t="s">
-        <v>85</v>
-      </c>
-      <c r="E51" t="s">
-        <v>27</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="E51"/>
       <c r="F51" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="C52" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
-      </c>
-      <c r="E52"/>
+        <v>86</v>
+      </c>
+      <c r="E52" t="s">
+        <v>11</v>
+      </c>
       <c r="F52" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G52" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B53" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D53" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F53" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="G53" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B54" t="s">
         <v>100</v>
       </c>
       <c r="C54" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D54" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E54" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B55" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C55" t="s">
         <v>25</v>
       </c>
       <c r="D55" t="s">
-        <v>85</v>
-      </c>
-      <c r="E55" t="s">
-        <v>11</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="E55"/>
       <c r="F55" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="G55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B56" t="s">
         <v>103</v>
       </c>
       <c r="C56" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="D56" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E56"/>
       <c r="F56" t="s">
         <v>104</v>
       </c>
       <c r="G56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B57" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C57" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E57"/>
       <c r="F57" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B58" t="s">
         <v>107</v>
@@ -2059,53 +2004,55 @@
         <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E58"/>
       <c r="F58" t="s">
         <v>108</v>
       </c>
       <c r="G58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B59" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E59"/>
       <c r="F59" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="G59" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B60" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="C60" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="D60" t="s">
-        <v>85</v>
-      </c>
-      <c r="E60"/>
+        <v>86</v>
+      </c>
+      <c r="E60" t="s">
+        <v>11</v>
+      </c>
       <c r="F60" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="G60" t="s">
         <v>13</v>
@@ -2113,371 +2060,117 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B61" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="C61" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="D61" t="s">
-        <v>85</v>
-      </c>
-      <c r="E61"/>
+        <v>86</v>
+      </c>
+      <c r="E61" t="s">
+        <v>30</v>
+      </c>
       <c r="F61" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="G61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B62" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="C62" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D62" t="s">
-        <v>85</v>
-      </c>
-      <c r="E62"/>
+        <v>86</v>
+      </c>
+      <c r="E62" t="s">
+        <v>11</v>
+      </c>
       <c r="F62" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="G62" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B63" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="C63" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D63" t="s">
-        <v>85</v>
-      </c>
-      <c r="E63"/>
+        <v>86</v>
+      </c>
+      <c r="E63" t="s">
+        <v>30</v>
+      </c>
       <c r="F63" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="G63" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B64" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="C64" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D64" t="s">
-        <v>85</v>
-      </c>
-      <c r="E64"/>
+        <v>86</v>
+      </c>
+      <c r="E64" t="s">
+        <v>30</v>
+      </c>
       <c r="F64" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="G64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B65" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="C65" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D65" t="s">
-        <v>85</v>
-      </c>
-      <c r="E65"/>
+        <v>86</v>
+      </c>
+      <c r="E65" t="s">
+        <v>11</v>
+      </c>
       <c r="F65" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="G65" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s">
-        <v>121</v>
-      </c>
-      <c r="B66" t="s">
-        <v>122</v>
-      </c>
-      <c r="C66" t="s">
-        <v>69</v>
-      </c>
-      <c r="D66" t="s">
-        <v>85</v>
-      </c>
-      <c r="E66"/>
-      <c r="F66" t="s">
-        <v>98</v>
-      </c>
-      <c r="G66" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>123</v>
-      </c>
-      <c r="B67" t="s">
-        <v>122</v>
-      </c>
-      <c r="C67" t="s">
-        <v>69</v>
-      </c>
-      <c r="D67" t="s">
-        <v>85</v>
-      </c>
-      <c r="E67"/>
-      <c r="F67" t="s">
-        <v>124</v>
-      </c>
-      <c r="G67" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s">
-        <v>125</v>
-      </c>
-      <c r="B68" t="s">
-        <v>122</v>
-      </c>
-      <c r="C68" t="s">
-        <v>69</v>
-      </c>
-      <c r="D68" t="s">
-        <v>85</v>
-      </c>
-      <c r="E68"/>
-      <c r="F68" t="s">
-        <v>98</v>
-      </c>
-      <c r="G68" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>126</v>
-      </c>
-      <c r="B69" t="s">
-        <v>122</v>
-      </c>
-      <c r="C69" t="s">
-        <v>69</v>
-      </c>
-      <c r="D69" t="s">
-        <v>85</v>
-      </c>
-      <c r="E69"/>
-      <c r="F69" t="s">
-        <v>98</v>
-      </c>
-      <c r="G69" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
-        <v>127</v>
-      </c>
-      <c r="B70" t="s">
-        <v>122</v>
-      </c>
-      <c r="C70" t="s">
-        <v>69</v>
-      </c>
-      <c r="D70" t="s">
-        <v>85</v>
-      </c>
-      <c r="E70" t="s">
-        <v>34</v>
-      </c>
-      <c r="F70" t="s">
-        <v>128</v>
-      </c>
-      <c r="G70" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>129</v>
-      </c>
-      <c r="B71" t="s">
-        <v>122</v>
-      </c>
-      <c r="C71" t="s">
-        <v>69</v>
-      </c>
-      <c r="D71" t="s">
-        <v>85</v>
-      </c>
-      <c r="E71" t="s">
-        <v>11</v>
-      </c>
-      <c r="F71" t="s">
-        <v>98</v>
-      </c>
-      <c r="G71" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>130</v>
-      </c>
-      <c r="B72" t="s">
-        <v>131</v>
-      </c>
-      <c r="C72" t="s">
-        <v>48</v>
-      </c>
-      <c r="D72" t="s">
-        <v>85</v>
-      </c>
-      <c r="E72"/>
-      <c r="F72" t="s">
-        <v>98</v>
-      </c>
-      <c r="G72" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>132</v>
-      </c>
-      <c r="B73" t="s">
-        <v>77</v>
-      </c>
-      <c r="C73" t="s">
-        <v>69</v>
-      </c>
-      <c r="D73" t="s">
-        <v>85</v>
-      </c>
-      <c r="E73"/>
-      <c r="F73" t="s">
-        <v>116</v>
-      </c>
-      <c r="G73" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>133</v>
-      </c>
-      <c r="B74" t="s">
-        <v>77</v>
-      </c>
-      <c r="C74" t="s">
-        <v>69</v>
-      </c>
-      <c r="D74" t="s">
-        <v>85</v>
-      </c>
-      <c r="E74" t="s">
-        <v>27</v>
-      </c>
-      <c r="F74" t="s">
-        <v>134</v>
-      </c>
-      <c r="G74" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s">
-        <v>135</v>
-      </c>
-      <c r="B75" t="s">
-        <v>77</v>
-      </c>
-      <c r="C75" t="s">
-        <v>69</v>
-      </c>
-      <c r="D75" t="s">
-        <v>85</v>
-      </c>
-      <c r="E75" t="s">
-        <v>11</v>
-      </c>
-      <c r="F75" t="s">
-        <v>81</v>
-      </c>
-      <c r="G75" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
-        <v>136</v>
-      </c>
-      <c r="B76" t="s">
-        <v>77</v>
-      </c>
-      <c r="C76" t="s">
-        <v>69</v>
-      </c>
-      <c r="D76" t="s">
-        <v>85</v>
-      </c>
-      <c r="E76" t="s">
-        <v>34</v>
-      </c>
-      <c r="F76" t="s">
-        <v>79</v>
-      </c>
-      <c r="G76" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s">
-        <v>137</v>
-      </c>
-      <c r="B77" t="s">
-        <v>77</v>
-      </c>
-      <c r="C77" t="s">
-        <v>69</v>
-      </c>
-      <c r="D77" t="s">
-        <v>85</v>
-      </c>
-      <c r="E77" t="s">
-        <v>27</v>
-      </c>
-      <c r="F77" t="s">
-        <v>79</v>
-      </c>
-      <c r="G77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
